--- a/Document/3_Test Case/Test case.xlsx
+++ b/Document/3_Test Case/Test case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\서강대학교 4-2 (2019-2)\융합소프트웨어종합설계\@Test Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E5C6EA-86E8-47A9-88E7-7A6048330336}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E1EDA3-C96C-45A0-8591-8A904AA45174}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="226">
   <si>
     <t>Scenario 명</t>
   </si>
@@ -340,10 +340,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>기기 예약 - 예약 삭제</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>기기 예약 - 예약 취소</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -640,10 +636,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>약품 의심질병 알림 - my Lab에 Dimethylacetamide 처음 등록 후 1개월 후</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>약품 의심질병 알림 - my Lab에 Dimethylformamide 처음 등록 후 1개월 후</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -915,6 +907,30 @@
   </si>
   <si>
     <t>my Lab 약품 목록에서 Ethanol 제거 후 'Ethanol이 my Lab 약품 목록에서 삭제되었습니다.' 팝업창 생성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lab 생성 - 이미 가입된 Lab이 있는 경우</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기기 예약 - 예약 삭제 (하루에 예약 1개인 경우)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기기 예약 - 에약 삭제 (하루에 예약 2개 이상인 경우)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>약품 의심질병 알림 - my Lab에 Dimethylacetamide 처음 등록 후 1개월 후 (내가 Lab에 속한지 1개월 이상)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>약품 의심질병 알림 - my Lab에 Dimethylacetamide 처음 등록 후 1개월 후 (내가 Lab에 속한지 1개월 이하)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>약품 의심질병 알림 - my Lab에 Dimethylacetamide 처음 등록 후 1개월 이상 이지만 (내가 Lab에 속한지 1개월이 된 경우)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1085,6 +1101,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1106,26 +1128,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1449,90 +1465,90 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="28" t="s">
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="21" t="s">
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="19" t="s">
+      <c r="O2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="21" t="s">
+      <c r="P2" s="23" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:16" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="22"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
       <c r="E3" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G3" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="I3" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>206</v>
-      </c>
       <c r="J3" s="10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="N3" s="22"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="22"/>
+        <v>209</v>
+      </c>
+      <c r="N3" s="24"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="24"/>
     </row>
     <row r="4" spans="2:16" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="2"/>
       <c r="C4" s="1"/>
       <c r="D4" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F4" s="8">
         <v>0.7893</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>17</v>
@@ -1550,7 +1566,7 @@
         <v>17</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O4" s="6"/>
       <c r="P4" s="3"/>
@@ -1559,7 +1575,7 @@
       <c r="B5" s="2"/>
       <c r="C5" s="1"/>
       <c r="D5" s="8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>17</v>
@@ -1598,25 +1614,25 @@
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
       <c r="D6" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F6" s="8">
         <v>0.7893</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I6" s="8">
         <v>10</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>18</v>
@@ -1628,7 +1644,7 @@
         <v>17</v>
       </c>
       <c r="N6" s="13" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="O6" s="7"/>
       <c r="P6" s="3"/>
@@ -1637,25 +1653,25 @@
       <c r="B7" s="2"/>
       <c r="C7" s="1"/>
       <c r="D7" s="8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F7" s="8">
         <v>0.7893</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I7" s="8">
         <v>10</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K7" s="11" t="s">
         <v>18</v>
@@ -1667,7 +1683,7 @@
         <v>17</v>
       </c>
       <c r="N7" s="13" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="O7" s="7"/>
       <c r="P7" s="3"/>
@@ -1676,25 +1692,25 @@
       <c r="B8" s="2"/>
       <c r="C8" s="1"/>
       <c r="D8" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F8" s="8">
         <v>0.7893</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I8" s="8">
         <v>90</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K8" s="11" t="s">
         <v>18</v>
@@ -1706,7 +1722,7 @@
         <v>17</v>
       </c>
       <c r="N8" s="16" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="O8" s="7"/>
       <c r="P8" s="3"/>
@@ -1715,25 +1731,25 @@
       <c r="B9" s="2"/>
       <c r="C9" s="1"/>
       <c r="D9" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>201</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>203</v>
       </c>
       <c r="F9" s="8">
         <v>0.7893</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I9" s="8">
         <v>100</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K9" s="11" t="s">
         <v>18</v>
@@ -1745,7 +1761,7 @@
         <v>17</v>
       </c>
       <c r="N9" s="16" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="O9" s="7"/>
       <c r="P9" s="3"/>
@@ -1754,25 +1770,25 @@
       <c r="B10" s="2"/>
       <c r="C10" s="1"/>
       <c r="D10" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F10" s="8">
         <v>0.7893</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I10" s="8">
         <v>150</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K10" s="11" t="s">
         <v>18</v>
@@ -1784,7 +1800,7 @@
         <v>17</v>
       </c>
       <c r="N10" s="16" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="O10" s="7"/>
       <c r="P10" s="3"/>
@@ -1793,25 +1809,25 @@
       <c r="B11" s="2"/>
       <c r="C11" s="1"/>
       <c r="D11" s="8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F11" s="8">
         <v>0.7893</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I11" s="8">
         <v>10</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K11" s="8" t="s">
         <v>19</v>
@@ -1832,19 +1848,19 @@
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
       <c r="D12" s="8" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F12" s="8">
         <v>0.7893</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I12" s="8" t="s">
         <v>17</v>
@@ -1862,7 +1878,7 @@
         <v>17</v>
       </c>
       <c r="N12" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O12" s="7"/>
       <c r="P12" s="3"/>
@@ -1886,7 +1902,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5D5D95A-4BE5-4CD5-8004-5D4BAFBC9A8F}">
-  <dimension ref="B2:T20"/>
+  <dimension ref="B2:T22"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
   </sheetViews>
@@ -1907,46 +1923,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:20" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="28" t="s">
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="21" t="s">
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="19" t="s">
+      <c r="S2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="21" t="s">
+      <c r="T2" s="23" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:20" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="22"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
       <c r="E3" s="10" t="s">
         <v>44</v>
       </c>
@@ -1984,9 +2000,9 @@
         <v>14</v>
       </c>
       <c r="Q3" s="4"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="22"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="24"/>
     </row>
     <row r="4" spans="2:20" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="2"/>
@@ -2188,56 +2204,30 @@
       <c r="B8" s="2"/>
       <c r="C8" s="1"/>
       <c r="D8" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L8" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="M8" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="N8" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="O8" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="P8" s="11" t="s">
-        <v>19</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
       <c r="Q8" s="1"/>
-      <c r="R8" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="S8" s="6"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="7"/>
       <c r="T8" s="3"/>
     </row>
     <row r="9" spans="2:20" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="2"/>
       <c r="C9" s="1"/>
       <c r="D9" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>31</v>
@@ -2246,10 +2236,10 @@
         <v>48</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="I9" s="11" t="s">
         <v>26</v>
@@ -2276,8 +2266,8 @@
         <v>19</v>
       </c>
       <c r="Q9" s="1"/>
-      <c r="R9" s="16" t="s">
-        <v>38</v>
+      <c r="R9" s="11" t="s">
+        <v>40</v>
       </c>
       <c r="S9" s="6"/>
       <c r="T9" s="3"/>
@@ -2286,16 +2276,16 @@
       <c r="B10" s="2"/>
       <c r="C10" s="1"/>
       <c r="D10" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>31</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>32</v>
+        <v>48</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>17</v>
@@ -2326,7 +2316,7 @@
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="S10" s="6"/>
       <c r="T10" s="3"/>
@@ -2335,19 +2325,19 @@
       <c r="B11" s="2"/>
       <c r="C11" s="1"/>
       <c r="D11" s="8" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>31</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>31</v>
+        <v>49</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>32</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="I11" s="11" t="s">
         <v>26</v>
@@ -2355,7 +2345,7 @@
       <c r="J11" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="K11" s="5" t="s">
         <v>33</v>
       </c>
       <c r="L11" s="11" t="s">
@@ -2368,14 +2358,14 @@
         <v>17</v>
       </c>
       <c r="O11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="P11" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="11" t="s">
-        <v>18</v>
-      </c>
       <c r="Q11" s="1"/>
-      <c r="R11" s="12" t="s">
-        <v>20</v>
+      <c r="R11" s="16" t="s">
+        <v>37</v>
       </c>
       <c r="S11" s="6"/>
       <c r="T11" s="3"/>
@@ -2384,19 +2374,19 @@
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
       <c r="D12" s="8" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>31</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>55</v>
+        <v>31</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="I12" s="11" t="s">
         <v>26</v>
@@ -2404,11 +2394,11 @@
       <c r="J12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K12" s="11" t="s">
-        <v>61</v>
+      <c r="K12" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="L12" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M12" s="11" t="s">
         <v>17</v>
@@ -2417,14 +2407,14 @@
         <v>17</v>
       </c>
       <c r="O12" s="11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="P12" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q12" s="1"/>
-      <c r="R12" s="16" t="s">
-        <v>62</v>
+      <c r="R12" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="S12" s="6"/>
       <c r="T12" s="3"/>
@@ -2433,47 +2423,47 @@
       <c r="B13" s="2"/>
       <c r="C13" s="1"/>
       <c r="D13" s="8" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>29</v>
+        <v>61</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>55</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="L13" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="M13" s="5">
-        <v>1234</v>
+        <v>17</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="N13" s="11" t="s">
         <v>17</v>
       </c>
       <c r="O13" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P13" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q13" s="1"/>
-      <c r="R13" s="11" t="s">
-        <v>40</v>
+      <c r="R13" s="16" t="s">
+        <v>62</v>
       </c>
       <c r="S13" s="6"/>
       <c r="T13" s="3"/>
@@ -2482,16 +2472,16 @@
       <c r="B14" s="2"/>
       <c r="C14" s="1"/>
       <c r="D14" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>29</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="H14" s="8" t="s">
         <v>29</v>
@@ -2508,21 +2498,21 @@
       <c r="L14" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="M14" s="11" t="s">
-        <v>17</v>
+      <c r="M14" s="5">
+        <v>1234</v>
       </c>
       <c r="N14" s="11" t="s">
         <v>17</v>
       </c>
       <c r="O14" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P14" s="11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Q14" s="1"/>
-      <c r="R14" s="16" t="s">
-        <v>50</v>
+      <c r="R14" s="11" t="s">
+        <v>40</v>
       </c>
       <c r="S14" s="6"/>
       <c r="T14" s="3"/>
@@ -2531,16 +2521,16 @@
       <c r="B15" s="2"/>
       <c r="C15" s="1"/>
       <c r="D15" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>29</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="H15" s="8" t="s">
         <v>29</v>
@@ -2557,21 +2547,21 @@
       <c r="L15" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="M15" s="5">
-        <v>9876</v>
+      <c r="M15" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="N15" s="11" t="s">
         <v>17</v>
       </c>
       <c r="O15" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P15" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="S15" s="6"/>
       <c r="T15" s="3"/>
@@ -2580,7 +2570,7 @@
       <c r="B16" s="2"/>
       <c r="C16" s="1"/>
       <c r="D16" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>29</v>
@@ -2607,69 +2597,69 @@
         <v>18</v>
       </c>
       <c r="M16" s="5">
-        <v>1234</v>
+        <v>9876</v>
       </c>
       <c r="N16" s="11" t="s">
         <v>17</v>
       </c>
       <c r="O16" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="P16" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="P16" s="11" t="s">
-        <v>18</v>
-      </c>
       <c r="Q16" s="1"/>
-      <c r="R16" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="S16" s="7"/>
+      <c r="R16" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="S16" s="6"/>
       <c r="T16" s="3"/>
     </row>
     <row r="17" spans="2:20" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="2"/>
       <c r="C17" s="1"/>
       <c r="D17" s="8" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G17" s="15" t="s">
-        <v>55</v>
+      <c r="G17" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K17" s="11" t="s">
         <v>17</v>
       </c>
       <c r="L17" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="M17" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="M17" s="5">
+        <v>1234</v>
       </c>
       <c r="N17" s="11" t="s">
         <v>17</v>
       </c>
       <c r="O17" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="P17" s="11" t="s">
         <v>18</v>
-      </c>
-      <c r="P17" s="11" t="s">
-        <v>19</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="11" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="S17" s="7"/>
       <c r="T17" s="3"/>
@@ -2678,56 +2668,30 @@
       <c r="B18" s="2"/>
       <c r="C18" s="1"/>
       <c r="D18" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="J18" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K18" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L18" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="M18" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="N18" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="O18" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="11" t="s">
-        <v>19</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
       <c r="Q18" s="1"/>
-      <c r="R18" s="16" t="s">
-        <v>58</v>
-      </c>
+      <c r="R18" s="12"/>
       <c r="S18" s="7"/>
       <c r="T18" s="3"/>
     </row>
-    <row r="19" spans="2:20" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:20" ht="34" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" s="2"/>
       <c r="C19" s="1"/>
       <c r="D19" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>31</v>
@@ -2736,7 +2700,7 @@
         <v>48</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="H19" s="8" t="s">
         <v>17</v>
@@ -2760,14 +2724,14 @@
         <v>17</v>
       </c>
       <c r="O19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="P19" s="11" t="s">
         <v>19</v>
-      </c>
-      <c r="P19" s="11" t="s">
-        <v>18</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="11" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="S19" s="7"/>
       <c r="T19" s="3"/>
@@ -2776,19 +2740,19 @@
       <c r="B20" s="2"/>
       <c r="C20" s="1"/>
       <c r="D20" s="8" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>31</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="15" t="s">
         <v>31</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="I20" s="11" t="s">
         <v>56</v>
@@ -2809,17 +2773,115 @@
         <v>17</v>
       </c>
       <c r="O20" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P20" s="11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Q20" s="1"/>
-      <c r="R20" s="13" t="s">
-        <v>62</v>
+      <c r="R20" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="S20" s="7"/>
       <c r="T20" s="3"/>
+    </row>
+    <row r="21" spans="2:20" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="2"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K21" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L21" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M21" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N21" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="O21" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="P21" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="S21" s="7"/>
+      <c r="T21" s="3"/>
+    </row>
+    <row r="22" spans="2:20" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="2"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K22" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M22" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N22" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="O22" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="P22" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="S22" s="7"/>
+      <c r="T22" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2834,13 +2896,13 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" draft="1"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" draft="1" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DE9A16F-3B8A-4EE1-BCF4-9CE04D903D1A}">
-  <dimension ref="B2:S13"/>
+  <dimension ref="B2:S14"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
   </sheetViews>
@@ -2862,53 +2924,53 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="29"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="28" t="s">
+      <c r="F2" s="28"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="21" t="s">
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="19" t="s">
+      <c r="R2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="21" t="s">
+      <c r="S2" s="23" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:19" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="22"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
       <c r="E3" s="10" t="s">
         <v>44</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H3" s="10" t="s">
         <v>67</v>
@@ -2920,26 +2982,26 @@
         <v>69</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L3" s="10" t="s">
         <v>70</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O3" s="10" t="s">
         <v>13</v>
       </c>
       <c r="P3" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="22"/>
+        <v>78</v>
+      </c>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="24"/>
     </row>
     <row r="4" spans="2:19" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="2"/>
@@ -2957,34 +3019,34 @@
         <v>17</v>
       </c>
       <c r="H4" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I4" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="J4" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="O4" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="P4" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="J4" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="M4" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="N4" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="O4" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="P4" s="11" t="s">
+      <c r="Q4" s="17" t="s">
         <v>83</v>
-      </c>
-      <c r="Q4" s="17" t="s">
-        <v>84</v>
       </c>
       <c r="R4" s="6"/>
       <c r="S4" s="3"/>
@@ -2999,40 +3061,40 @@
         <v>17</v>
       </c>
       <c r="F5" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="K5" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="11" t="s">
+      <c r="L5" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="P5" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="J5" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="M5" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="N5" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="O5" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="P5" s="11" t="s">
-        <v>83</v>
-      </c>
       <c r="Q5" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R5" s="6"/>
       <c r="S5" s="3"/>
@@ -3053,31 +3115,31 @@
         <v>17</v>
       </c>
       <c r="H6" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I6" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="J6" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="O6" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="J6" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="K6" s="11" t="s">
+      <c r="P6" s="11" t="s">
         <v>81</v>
-      </c>
-      <c r="L6" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="M6" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="N6" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="O6" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="P6" s="11" t="s">
-        <v>82</v>
       </c>
       <c r="Q6" s="12" t="s">
         <v>20</v>
@@ -3095,40 +3157,40 @@
         <v>17</v>
       </c>
       <c r="F7" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I7" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="G7" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="8" t="s">
+      <c r="J7" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="K7" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="N7" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="O7" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="K7" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="L7" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="M7" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="N7" s="11" t="s">
+      <c r="P7" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="O7" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="P7" s="11" t="s">
-        <v>83</v>
-      </c>
       <c r="Q7" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R7" s="7"/>
       <c r="S7" s="3"/>
@@ -3143,37 +3205,37 @@
         <v>17</v>
       </c>
       <c r="F8" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I8" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="G8" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="8" t="s">
+      <c r="J8" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="K8" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="N8" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="O8" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="P8" s="11" t="s">
         <v>81</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="L8" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="M8" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="N8" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="O8" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="P8" s="11" t="s">
-        <v>82</v>
       </c>
       <c r="Q8" s="12" t="s">
         <v>20</v>
@@ -3191,40 +3253,40 @@
         <v>31</v>
       </c>
       <c r="F9" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I9" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="8" t="s">
+      <c r="J9" s="11" t="s">
         <v>80</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>81</v>
       </c>
       <c r="K9" s="18">
         <v>43800</v>
       </c>
       <c r="L9" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="N9" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="M9" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="N9" s="11" t="s">
-        <v>83</v>
-      </c>
       <c r="O9" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="P9" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="P9" s="11" t="s">
-        <v>83</v>
-      </c>
       <c r="Q9" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R9" s="7"/>
       <c r="S9" s="3"/>
@@ -3239,40 +3301,40 @@
         <v>31</v>
       </c>
       <c r="F10" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I10" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="8" t="s">
+      <c r="J10" s="11" t="s">
         <v>80</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>81</v>
       </c>
       <c r="K10" s="18">
         <v>43794</v>
       </c>
       <c r="L10" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="N10" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="M10" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="N10" s="11" t="s">
-        <v>83</v>
-      </c>
       <c r="O10" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="P10" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="P10" s="11" t="s">
-        <v>83</v>
-      </c>
       <c r="Q10" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R10" s="7"/>
       <c r="S10" s="3"/>
@@ -3287,40 +3349,40 @@
         <v>31</v>
       </c>
       <c r="F11" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I11" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="G11" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="H11" s="8" t="s">
+      <c r="J11" s="11" t="s">
         <v>80</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>81</v>
       </c>
       <c r="K11" s="18">
         <v>43800</v>
       </c>
       <c r="L11" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="N11" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="M11" s="11" t="s">
+      <c r="O11" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="P11" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q11" s="16" t="s">
         <v>93</v>
-      </c>
-      <c r="N11" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="O11" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="P11" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q11" s="16" t="s">
-        <v>94</v>
       </c>
       <c r="R11" s="7"/>
       <c r="S11" s="3"/>
@@ -3329,46 +3391,46 @@
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
       <c r="D12" s="8" t="s">
-        <v>76</v>
+        <v>221</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>31</v>
       </c>
       <c r="F12" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I12" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="G12" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="H12" s="8" t="s">
+      <c r="J12" s="11" t="s">
         <v>80</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>81</v>
       </c>
       <c r="K12" s="18">
         <v>43800</v>
       </c>
       <c r="L12" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M12" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="N12" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="N12" s="11" t="s">
+      <c r="O12" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="P12" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="O12" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="P12" s="11" t="s">
-        <v>83</v>
-      </c>
       <c r="Q12" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R12" s="7"/>
       <c r="S12" s="3"/>
@@ -3377,49 +3439,71 @@
       <c r="B13" s="2"/>
       <c r="C13" s="1"/>
       <c r="D13" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="K13" s="18">
-        <v>43800</v>
-      </c>
-      <c r="L13" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="M13" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="N13" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="O13" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="P13" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q13" s="12" t="s">
-        <v>20</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="12"/>
       <c r="R13" s="7"/>
       <c r="S13" s="3"/>
+    </row>
+    <row r="14" spans="2:19" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="2"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="18">
+        <v>43800</v>
+      </c>
+      <c r="L14" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="M14" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="N14" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="O14" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q14" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="R14" s="7"/>
+      <c r="S14" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3440,13 +3524,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF60FC4F-1231-4521-9838-1744E08E27E4}">
-  <dimension ref="B2:O35"/>
+  <dimension ref="B2:O37"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
+    <sheetView topLeftCell="A13" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="4" max="4" width="79.4140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="112.4140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.08203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.58203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.75" bestFit="1" customWidth="1"/>
@@ -3459,80 +3545,80 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="28" t="s">
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="21" t="s">
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="19" t="s">
+      <c r="N2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="21" t="s">
+      <c r="O2" s="23" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:15" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="22"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
       <c r="E3" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>122</v>
-      </c>
       <c r="G3" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="M3" s="22"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="22"/>
+        <v>77</v>
+      </c>
+      <c r="M3" s="24"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="24"/>
     </row>
     <row r="4" spans="2:15" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="2"/>
       <c r="C4" s="1"/>
       <c r="D4" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>17</v>
@@ -3541,19 +3627,19 @@
         <v>17</v>
       </c>
       <c r="I4" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="13" t="s">
         <v>104</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" s="13" t="s">
-        <v>105</v>
       </c>
       <c r="N4" s="6"/>
       <c r="O4" s="3"/>
@@ -3562,13 +3648,13 @@
       <c r="B5" s="2"/>
       <c r="C5" s="1"/>
       <c r="D5" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>17</v>
@@ -3577,7 +3663,7 @@
         <v>17</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J5" s="8" t="s">
         <v>17</v>
@@ -3589,7 +3675,7 @@
         <v>17</v>
       </c>
       <c r="M5" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="3"/>
@@ -3598,13 +3684,13 @@
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
       <c r="D6" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="F6" s="31" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>124</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>17</v>
@@ -3613,7 +3699,7 @@
         <v>17</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>17</v>
@@ -3625,7 +3711,7 @@
         <v>17</v>
       </c>
       <c r="M6" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="3"/>
@@ -3634,13 +3720,13 @@
       <c r="B7" s="2"/>
       <c r="C7" s="1"/>
       <c r="D7" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>17</v>
@@ -3649,7 +3735,7 @@
         <v>17</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>17</v>
@@ -3661,7 +3747,7 @@
         <v>18</v>
       </c>
       <c r="M7" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="3"/>
@@ -3670,13 +3756,13 @@
       <c r="B8" s="2"/>
       <c r="C8" s="1"/>
       <c r="D8" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>17</v>
@@ -3685,10 +3771,10 @@
         <v>17</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K8" s="11" t="s">
         <v>17</v>
@@ -3697,7 +3783,7 @@
         <v>17</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N8" s="7"/>
       <c r="O8" s="3"/>
@@ -3706,13 +3792,13 @@
       <c r="B9" s="2"/>
       <c r="C9" s="1"/>
       <c r="D9" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="F9" s="31" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>124</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>17</v>
@@ -3721,7 +3807,7 @@
         <v>17</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J9" s="8" t="s">
         <v>17</v>
@@ -3733,7 +3819,7 @@
         <v>17</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N9" s="7"/>
       <c r="O9" s="3"/>
@@ -3742,13 +3828,13 @@
       <c r="B10" s="2"/>
       <c r="C10" s="1"/>
       <c r="D10" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>17</v>
@@ -3757,7 +3843,7 @@
         <v>17</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J10" s="8" t="s">
         <v>17</v>
@@ -3778,34 +3864,34 @@
       <c r="B11" s="2"/>
       <c r="C11" s="1"/>
       <c r="D11" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E11" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" s="13" t="s">
         <v>133</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="32">
-        <v>0.2</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L11" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="M11" s="13" t="s">
-        <v>134</v>
       </c>
       <c r="N11" s="7"/>
       <c r="O11" s="3"/>
@@ -3814,22 +3900,22 @@
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
       <c r="D12" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="32">
+      <c r="G12" s="20">
         <v>0</v>
       </c>
       <c r="H12" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J12" s="8" t="s">
         <v>17</v>
@@ -3841,7 +3927,7 @@
         <v>17</v>
       </c>
       <c r="M12" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N12" s="7"/>
       <c r="O12" s="3"/>
@@ -3850,22 +3936,22 @@
       <c r="B13" s="2"/>
       <c r="C13" s="1"/>
       <c r="D13" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="32">
+      <c r="G13" s="20">
         <v>0.2</v>
       </c>
       <c r="H13" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J13" s="8" t="s">
         <v>17</v>
@@ -3877,7 +3963,7 @@
         <v>18</v>
       </c>
       <c r="M13" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N13" s="7"/>
       <c r="O13" s="3"/>
@@ -3886,25 +3972,25 @@
       <c r="B14" s="2"/>
       <c r="C14" s="1"/>
       <c r="D14" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="32">
+      <c r="G14" s="20">
         <v>0.2</v>
       </c>
       <c r="H14" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K14" s="11" t="s">
         <v>17</v>
@@ -3913,7 +3999,7 @@
         <v>17</v>
       </c>
       <c r="M14" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N14" s="7"/>
       <c r="O14" s="3"/>
@@ -3922,22 +4008,22 @@
       <c r="B15" s="2"/>
       <c r="C15" s="1"/>
       <c r="D15" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="32">
+      <c r="G15" s="20">
         <v>0</v>
       </c>
       <c r="H15" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J15" s="8" t="s">
         <v>17</v>
@@ -3949,7 +4035,7 @@
         <v>17</v>
       </c>
       <c r="M15" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N15" s="7"/>
       <c r="O15" s="3"/>
@@ -3958,22 +4044,22 @@
       <c r="B16" s="2"/>
       <c r="C16" s="1"/>
       <c r="D16" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="32">
+      <c r="G16" s="20">
         <v>0.7</v>
       </c>
       <c r="H16" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J16" s="8" t="s">
         <v>17</v>
@@ -3994,22 +4080,22 @@
       <c r="B17" s="2"/>
       <c r="C17" s="1"/>
       <c r="D17" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="F17" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="F17" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>155</v>
-      </c>
       <c r="I17" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J17" s="8" t="s">
         <v>17</v>
@@ -4021,7 +4107,7 @@
         <v>17</v>
       </c>
       <c r="M17" s="13" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="N17" s="6"/>
       <c r="O17" s="3"/>
@@ -4030,35 +4116,17 @@
       <c r="B18" s="2"/>
       <c r="C18" s="1"/>
       <c r="D18" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K18" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L18" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="M18" s="13" t="s">
-        <v>174</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="13"/>
       <c r="N18" s="6"/>
       <c r="O18" s="3"/>
     </row>
@@ -4066,35 +4134,17 @@
       <c r="B19" s="2"/>
       <c r="C19" s="1"/>
       <c r="D19" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K19" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L19" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="M19" s="13" t="s">
-        <v>176</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="13"/>
       <c r="N19" s="6"/>
       <c r="O19" s="3"/>
     </row>
@@ -4105,19 +4155,19 @@
         <v>149</v>
       </c>
       <c r="E20" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="F20" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>156</v>
-      </c>
       <c r="I20" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J20" s="8" t="s">
         <v>17</v>
@@ -4129,7 +4179,7 @@
         <v>17</v>
       </c>
       <c r="M20" s="13" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="N20" s="6"/>
       <c r="O20" s="3"/>
@@ -4138,10 +4188,10 @@
       <c r="B21" s="2"/>
       <c r="C21" s="1"/>
       <c r="D21" s="8" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>120</v>
+        <v>173</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>17</v>
@@ -4150,10 +4200,10 @@
         <v>17</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J21" s="8" t="s">
         <v>17</v>
@@ -4165,7 +4215,7 @@
         <v>17</v>
       </c>
       <c r="M21" s="13" t="s">
-        <v>146</v>
+        <v>174</v>
       </c>
       <c r="N21" s="6"/>
       <c r="O21" s="3"/>
@@ -4174,23 +4224,23 @@
       <c r="B22" s="2"/>
       <c r="C22" s="1"/>
       <c r="D22" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="I22" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="E22" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>141</v>
-      </c>
       <c r="J22" s="8" t="s">
         <v>17</v>
       </c>
@@ -4201,7 +4251,7 @@
         <v>17</v>
       </c>
       <c r="M22" s="13" t="s">
-        <v>147</v>
+        <v>175</v>
       </c>
       <c r="N22" s="6"/>
       <c r="O22" s="3"/>
@@ -4210,10 +4260,10 @@
       <c r="B23" s="2"/>
       <c r="C23" s="1"/>
       <c r="D23" s="8" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>178</v>
+        <v>119</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>17</v>
@@ -4222,10 +4272,10 @@
         <v>17</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J23" s="8" t="s">
         <v>17</v>
@@ -4237,7 +4287,7 @@
         <v>17</v>
       </c>
       <c r="M23" s="13" t="s">
-        <v>179</v>
+        <v>145</v>
       </c>
       <c r="N23" s="6"/>
       <c r="O23" s="3"/>
@@ -4246,10 +4296,10 @@
       <c r="B24" s="2"/>
       <c r="C24" s="1"/>
       <c r="D24" s="8" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>158</v>
+        <v>119</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>17</v>
@@ -4258,10 +4308,10 @@
         <v>17</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J24" s="8" t="s">
         <v>17</v>
@@ -4273,7 +4323,7 @@
         <v>17</v>
       </c>
       <c r="M24" s="13" t="s">
-        <v>180</v>
+        <v>146</v>
       </c>
       <c r="N24" s="6"/>
       <c r="O24" s="3"/>
@@ -4282,10 +4332,10 @@
       <c r="B25" s="2"/>
       <c r="C25" s="1"/>
       <c r="D25" s="8" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F25" s="8" t="s">
         <v>17</v>
@@ -4294,10 +4344,10 @@
         <v>17</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J25" s="8" t="s">
         <v>17</v>
@@ -4309,7 +4359,7 @@
         <v>17</v>
       </c>
       <c r="M25" s="13" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="N25" s="6"/>
       <c r="O25" s="3"/>
@@ -4318,10 +4368,10 @@
       <c r="B26" s="2"/>
       <c r="C26" s="1"/>
       <c r="D26" s="8" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>17</v>
@@ -4330,10 +4380,10 @@
         <v>17</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J26" s="8" t="s">
         <v>17</v>
@@ -4345,7 +4395,7 @@
         <v>17</v>
       </c>
       <c r="M26" s="13" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="N26" s="6"/>
       <c r="O26" s="3"/>
@@ -4354,10 +4404,10 @@
       <c r="B27" s="2"/>
       <c r="C27" s="1"/>
       <c r="D27" s="8" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>17</v>
@@ -4366,10 +4416,10 @@
         <v>17</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J27" s="8" t="s">
         <v>17</v>
@@ -4381,7 +4431,7 @@
         <v>17</v>
       </c>
       <c r="M27" s="13" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="N27" s="6"/>
       <c r="O27" s="3"/>
@@ -4390,10 +4440,10 @@
       <c r="B28" s="2"/>
       <c r="C28" s="1"/>
       <c r="D28" s="8" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F28" s="8" t="s">
         <v>17</v>
@@ -4402,10 +4452,10 @@
         <v>17</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J28" s="8" t="s">
         <v>17</v>
@@ -4417,7 +4467,7 @@
         <v>17</v>
       </c>
       <c r="M28" s="13" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="N28" s="6"/>
       <c r="O28" s="3"/>
@@ -4426,10 +4476,10 @@
       <c r="B29" s="2"/>
       <c r="C29" s="1"/>
       <c r="D29" s="8" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="F29" s="8" t="s">
         <v>17</v>
@@ -4438,10 +4488,10 @@
         <v>17</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J29" s="8" t="s">
         <v>17</v>
@@ -4453,7 +4503,7 @@
         <v>17</v>
       </c>
       <c r="M29" s="13" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="N29" s="6"/>
       <c r="O29" s="3"/>
@@ -4462,10 +4512,10 @@
       <c r="B30" s="2"/>
       <c r="C30" s="1"/>
       <c r="D30" s="8" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>17</v>
@@ -4474,10 +4524,10 @@
         <v>17</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J30" s="8" t="s">
         <v>17</v>
@@ -4489,7 +4539,7 @@
         <v>17</v>
       </c>
       <c r="M30" s="13" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="N30" s="6"/>
       <c r="O30" s="3"/>
@@ -4498,10 +4548,10 @@
       <c r="B31" s="2"/>
       <c r="C31" s="1"/>
       <c r="D31" s="8" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="F31" s="8" t="s">
         <v>17</v>
@@ -4510,10 +4560,10 @@
         <v>17</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>187</v>
+        <v>158</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J31" s="8" t="s">
         <v>17</v>
@@ -4525,7 +4575,7 @@
         <v>17</v>
       </c>
       <c r="M31" s="13" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="N31" s="6"/>
       <c r="O31" s="3"/>
@@ -4534,10 +4584,10 @@
       <c r="B32" s="2"/>
       <c r="C32" s="1"/>
       <c r="D32" s="8" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="F32" s="8" t="s">
         <v>17</v>
@@ -4546,10 +4596,10 @@
         <v>17</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>188</v>
+        <v>159</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J32" s="8" t="s">
         <v>17</v>
@@ -4561,19 +4611,19 @@
         <v>17</v>
       </c>
       <c r="M32" s="13" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="N32" s="6"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:15" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B33" s="2"/>
       <c r="C33" s="1"/>
       <c r="D33" s="8" t="s">
-        <v>131</v>
+        <v>187</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>120</v>
+        <v>189</v>
       </c>
       <c r="F33" s="8" t="s">
         <v>17</v>
@@ -4582,10 +4632,10 @@
         <v>17</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>17</v>
+        <v>185</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J33" s="8" t="s">
         <v>17</v>
@@ -4594,22 +4644,22 @@
         <v>17</v>
       </c>
       <c r="L33" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M33" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="N33" s="7"/>
+        <v>190</v>
+      </c>
+      <c r="N33" s="6"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:15" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B34" s="2"/>
       <c r="C34" s="1"/>
       <c r="D34" s="8" t="s">
-        <v>132</v>
+        <v>188</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>120</v>
+        <v>189</v>
       </c>
       <c r="F34" s="8" t="s">
         <v>17</v>
@@ -4618,13 +4668,13 @@
         <v>17</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>17</v>
+        <v>186</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J34" s="8" t="s">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="K34" s="11" t="s">
         <v>17</v>
@@ -4632,20 +4682,20 @@
       <c r="L34" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="M34" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="N34" s="7"/>
+      <c r="M34" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="N34" s="6"/>
       <c r="O34" s="3"/>
     </row>
     <row r="35" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B35" s="2"/>
       <c r="C35" s="1"/>
       <c r="D35" s="8" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F35" s="8" t="s">
         <v>17</v>
@@ -4657,7 +4707,7 @@
         <v>17</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J35" s="8" t="s">
         <v>17</v>
@@ -4666,13 +4716,85 @@
         <v>17</v>
       </c>
       <c r="L35" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="M35" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="M35" s="13" t="s">
+        <v>147</v>
       </c>
       <c r="N35" s="7"/>
       <c r="O35" s="3"/>
+    </row>
+    <row r="36" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="2"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="K36" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L36" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M36" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="N36" s="7"/>
+      <c r="O36" s="3"/>
+    </row>
+    <row r="37" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="2"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K37" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L37" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M37" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="N37" s="7"/>
+      <c r="O37" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Document/3_Test Case/Test case.xlsx
+++ b/Document/3_Test Case/Test case.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\서강대학교 4-2 (2019-2)\융합소프트웨어종합설계\@Test Case\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\한빈\Desktop\융종설\ChemicalManagementApplication\Document\3_Test Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E1EDA3-C96C-45A0-8591-8A904AA45174}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B5AC370-4B8A-42D0-86E3-78AC1AD0033C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Use Case 2 myLab 재고 소진 약품 관리" sheetId="13" r:id="rId1"/>
@@ -1449,7 +1449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D4E040F-E999-4313-A753-E953A6C63672}">
   <dimension ref="B2:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
@@ -3526,9 +3526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF60FC4F-1231-4521-9838-1744E08E27E4}">
   <dimension ref="B2:O37"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
